--- a/biology/Médecine/Nicolas_Abraham_de_La_Framboisière/Nicolas_Abraham_de_La_Framboisière.xlsx
+++ b/biology/Médecine/Nicolas_Abraham_de_La_Framboisière/Nicolas_Abraham_de_La_Framboisière.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Nicolas_Abraham_de_La_Framboisi%C3%A8re</t>
+          <t>Nicolas_Abraham_de_La_Framboisière</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Nicolas Abraham, sieur de la Framboisière né en 1560 à Guise[1] et mort le 6 mai 1636[2] à Reims, est un médecin et conseiller du roi, médecin en chef des armées et professeur et doyen de la faculté de médecine de Reims.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Nicolas Abraham, sieur de la Framboisière né en 1560 à Guise et mort le 6 mai 1636 à Reims, est un médecin et conseiller du roi, médecin en chef des armées et professeur et doyen de la faculté de médecine de Reims.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Nicolas_Abraham_de_La_Framboisi%C3%A8re</t>
+          <t>Nicolas_Abraham_de_La_Framboisière</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il suivit des cours à la faculté de médecine de Paris.
-« Ses œuvres constituent une véritable somme des connaissances médicales de son époque, et témoignent entre autres de la lutte qui opposait au tournant des seizième et dix-septième siècles les tenants de la nouvelle médecine paracelsiste et les défenseurs de la médecine orthodoxe[3]. »
+« Ses œuvres constituent une véritable somme des connaissances médicales de son époque, et témoignent entre autres de la lutte qui opposait au tournant des seizième et dix-septième siècles les tenants de la nouvelle médecine paracelsiste et les défenseurs de la médecine orthodoxe. »
 C'est un lecteur attentif d'Ambroise Paré.
 Il écrit d'abord en latin, puis, à la demande d'Henri IV, en français.
 Les Œuvres de 1613 réunissent des écrits jusque-là séparés.
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Nicolas_Abraham_de_La_Framboisi%C3%A8re</t>
+          <t>Nicolas_Abraham_de_La_Framboisière</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,7 +560,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Gouvernement nécessaire a chacun pour vivre longuement en santé, 1600.
 Œuvres, 1613.
